--- a/8/1/2/3/Activos- Flujos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/3/Activos- Flujos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>Serie</t>
   </si>
@@ -731,6 +731,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R222"/>
+  <dimension ref="A1:R223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13251,49 +13254,49 @@
         <v>234</v>
       </c>
       <c r="B218">
-        <v>3060</v>
+        <v>3782</v>
       </c>
       <c r="C218">
-        <v>493</v>
+        <v>1205</v>
       </c>
       <c r="D218">
-        <v>107</v>
+        <v>895</v>
       </c>
       <c r="E218">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="F218">
-        <v>48</v>
+        <v>-6</v>
       </c>
       <c r="G218">
-        <v>6296</v>
+        <v>6372</v>
       </c>
       <c r="H218">
-        <v>3058</v>
+        <v>2991</v>
       </c>
       <c r="I218">
-        <v>3238</v>
+        <v>3381</v>
       </c>
       <c r="J218">
-        <v>2213</v>
+        <v>2251</v>
       </c>
       <c r="K218">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="L218">
         <v>-1395</v>
       </c>
       <c r="M218">
-        <v>-2222</v>
+        <v>-2289</v>
       </c>
       <c r="N218">
-        <v>632</v>
+        <v>702</v>
       </c>
       <c r="O218">
-        <v>-161</v>
+        <v>-141</v>
       </c>
       <c r="P218">
-        <v>-2685</v>
+        <v>-2841</v>
       </c>
       <c r="Q218">
         <v>-9</v>
@@ -13307,49 +13310,49 @@
         <v>235</v>
       </c>
       <c r="B219">
-        <v>-457</v>
+        <v>5414</v>
       </c>
       <c r="C219">
-        <v>685</v>
+        <v>6189</v>
       </c>
       <c r="D219">
-        <v>99</v>
+        <v>5790</v>
       </c>
       <c r="E219">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="F219">
-        <v>92</v>
+        <v>-71</v>
       </c>
       <c r="G219">
-        <v>-785</v>
+        <v>-402</v>
       </c>
       <c r="H219">
-        <v>890</v>
+        <v>436</v>
       </c>
       <c r="I219">
-        <v>-1675</v>
+        <v>-838</v>
       </c>
       <c r="J219">
-        <v>-1694</v>
+        <v>-934</v>
       </c>
       <c r="K219">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="L219">
         <v>-1325</v>
       </c>
       <c r="M219">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="N219">
-        <v>191</v>
+        <v>303</v>
       </c>
       <c r="O219">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="P219">
-        <v>101</v>
+        <v>-45</v>
       </c>
       <c r="Q219">
         <v>-9</v>
@@ -13363,49 +13366,49 @@
         <v>236</v>
       </c>
       <c r="B220">
-        <v>1500</v>
+        <v>1851</v>
       </c>
       <c r="C220">
-        <v>516</v>
+        <v>930</v>
       </c>
       <c r="D220">
-        <v>74</v>
+        <v>563</v>
       </c>
       <c r="E220">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="F220">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="G220">
-        <v>-1105</v>
+        <v>-738</v>
       </c>
       <c r="H220">
-        <v>-719</v>
+        <v>-140</v>
       </c>
       <c r="I220">
-        <v>-386</v>
+        <v>-598</v>
       </c>
       <c r="J220">
-        <v>-239</v>
+        <v>-115</v>
       </c>
       <c r="K220">
-        <v>-147</v>
+        <v>-483</v>
       </c>
       <c r="L220">
         <v>-970</v>
       </c>
       <c r="M220">
-        <v>2179</v>
+        <v>1749</v>
       </c>
       <c r="N220">
-        <v>-45</v>
+        <v>-35</v>
       </c>
       <c r="O220">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="P220">
-        <v>2172</v>
+        <v>1706</v>
       </c>
       <c r="Q220">
         <v>-9</v>
@@ -13419,49 +13422,49 @@
         <v>237</v>
       </c>
       <c r="B221">
-        <v>2878</v>
+        <v>4040</v>
       </c>
       <c r="C221">
-        <v>466</v>
+        <v>537</v>
       </c>
       <c r="D221">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="E221">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="F221">
-        <v>-60</v>
+        <v>-3</v>
       </c>
       <c r="G221">
-        <v>-841</v>
+        <v>-625</v>
       </c>
       <c r="H221">
-        <v>846</v>
+        <v>1019</v>
       </c>
       <c r="I221">
-        <v>-1687</v>
+        <v>-1644</v>
       </c>
       <c r="J221">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="K221">
-        <v>-2177</v>
+        <v>-2156</v>
       </c>
       <c r="L221">
         <v>-1086</v>
       </c>
       <c r="M221">
-        <v>2230</v>
+        <v>3105</v>
       </c>
       <c r="N221">
-        <v>390</v>
+        <v>1212</v>
       </c>
       <c r="O221">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P221">
-        <v>1836</v>
+        <v>1895</v>
       </c>
       <c r="Q221">
         <v>-9</v>
@@ -13475,55 +13478,111 @@
         <v>238</v>
       </c>
       <c r="B222">
-        <v>-807</v>
+        <v>247</v>
       </c>
       <c r="C222">
-        <v>483</v>
+        <v>368</v>
       </c>
       <c r="D222">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="E222">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="F222">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="G222">
-        <v>-5586</v>
+        <v>-5217</v>
       </c>
       <c r="H222">
-        <v>-6524</v>
+        <v>-6367</v>
       </c>
       <c r="I222">
-        <v>938</v>
+        <v>1151</v>
       </c>
       <c r="J222">
-        <v>890</v>
+        <v>957</v>
       </c>
       <c r="K222">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="L222">
         <v>-789</v>
       </c>
       <c r="M222">
-        <v>153</v>
+        <v>953</v>
       </c>
       <c r="N222">
-        <v>122</v>
+        <v>531</v>
       </c>
       <c r="O222">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="P222">
-        <v>-172</v>
+        <v>228</v>
       </c>
       <c r="Q222">
         <v>94</v>
       </c>
       <c r="R222">
         <v>4932</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18">
+      <c r="A223" t="s">
+        <v>239</v>
+      </c>
+      <c r="B223">
+        <v>-1796</v>
+      </c>
+      <c r="C223">
+        <v>544</v>
+      </c>
+      <c r="D223">
+        <v>234</v>
+      </c>
+      <c r="E223">
+        <v>290</v>
+      </c>
+      <c r="F223">
+        <v>20</v>
+      </c>
+      <c r="G223">
+        <v>486</v>
+      </c>
+      <c r="H223">
+        <v>2261</v>
+      </c>
+      <c r="I223">
+        <v>-1776</v>
+      </c>
+      <c r="J223">
+        <v>-502</v>
+      </c>
+      <c r="K223">
+        <v>-1273</v>
+      </c>
+      <c r="L223">
+        <v>-856</v>
+      </c>
+      <c r="M223">
+        <v>626</v>
+      </c>
+      <c r="N223">
+        <v>-445</v>
+      </c>
+      <c r="O223">
+        <v>-29</v>
+      </c>
+      <c r="P223">
+        <v>1109</v>
+      </c>
+      <c r="Q223">
+        <v>-9</v>
+      </c>
+      <c r="R223">
+        <v>-2596</v>
       </c>
     </row>
   </sheetData>

--- a/8/1/2/3/Activos- Flujos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/3/Activos- Flujos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>Serie</t>
   </si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R223"/>
+  <dimension ref="A1:R224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13585,6 +13588,62 @@
         <v>-2596</v>
       </c>
     </row>
+    <row r="224" spans="1:18">
+      <c r="A224" t="s">
+        <v>240</v>
+      </c>
+      <c r="B224">
+        <v>6863</v>
+      </c>
+      <c r="C224">
+        <v>593</v>
+      </c>
+      <c r="D224">
+        <v>238</v>
+      </c>
+      <c r="E224">
+        <v>207</v>
+      </c>
+      <c r="F224">
+        <v>148</v>
+      </c>
+      <c r="G224">
+        <v>2884</v>
+      </c>
+      <c r="H224">
+        <v>858</v>
+      </c>
+      <c r="I224">
+        <v>2026</v>
+      </c>
+      <c r="J224">
+        <v>1890</v>
+      </c>
+      <c r="K224">
+        <v>136</v>
+      </c>
+      <c r="L224">
+        <v>-842</v>
+      </c>
+      <c r="M224">
+        <v>630</v>
+      </c>
+      <c r="N224">
+        <v>-76</v>
+      </c>
+      <c r="O224">
+        <v>-71</v>
+      </c>
+      <c r="P224">
+        <v>785</v>
+      </c>
+      <c r="Q224">
+        <v>-8</v>
+      </c>
+      <c r="R224">
+        <v>3599</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/1/2/3/Activos- Flujos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/3/Activos- Flujos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>Serie</t>
   </si>
@@ -737,6 +737,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R224"/>
+  <dimension ref="A1:R225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13644,6 +13647,62 @@
         <v>3599</v>
       </c>
     </row>
+    <row r="225" spans="1:18">
+      <c r="A225" t="s">
+        <v>241</v>
+      </c>
+      <c r="B225">
+        <v>2874</v>
+      </c>
+      <c r="C225">
+        <v>768</v>
+      </c>
+      <c r="D225">
+        <v>246</v>
+      </c>
+      <c r="E225">
+        <v>341</v>
+      </c>
+      <c r="F225">
+        <v>180</v>
+      </c>
+      <c r="G225">
+        <v>-2465</v>
+      </c>
+      <c r="H225">
+        <v>1325</v>
+      </c>
+      <c r="I225">
+        <v>-3789</v>
+      </c>
+      <c r="J225">
+        <v>-3911</v>
+      </c>
+      <c r="K225">
+        <v>122</v>
+      </c>
+      <c r="L225">
+        <v>-770</v>
+      </c>
+      <c r="M225">
+        <v>1974</v>
+      </c>
+      <c r="N225">
+        <v>148</v>
+      </c>
+      <c r="O225">
+        <v>-29</v>
+      </c>
+      <c r="P225">
+        <v>1863</v>
+      </c>
+      <c r="Q225">
+        <v>-8</v>
+      </c>
+      <c r="R225">
+        <v>3368</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/1/2/3/Activos- Flujos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/3/Activos- Flujos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>Serie</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R225"/>
+  <dimension ref="A1:R226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13703,6 +13706,62 @@
         <v>3368</v>
       </c>
     </row>
+    <row r="226" spans="1:18">
+      <c r="A226" t="s">
+        <v>242</v>
+      </c>
+      <c r="B226">
+        <v>4495</v>
+      </c>
+      <c r="C226">
+        <v>643</v>
+      </c>
+      <c r="D226">
+        <v>377</v>
+      </c>
+      <c r="E226">
+        <v>108</v>
+      </c>
+      <c r="F226">
+        <v>157</v>
+      </c>
+      <c r="G226">
+        <v>1101</v>
+      </c>
+      <c r="H226">
+        <v>654</v>
+      </c>
+      <c r="I226">
+        <v>446</v>
+      </c>
+      <c r="J226">
+        <v>-50</v>
+      </c>
+      <c r="K226">
+        <v>497</v>
+      </c>
+      <c r="L226">
+        <v>-759</v>
+      </c>
+      <c r="M226">
+        <v>1803</v>
+      </c>
+      <c r="N226">
+        <v>-130</v>
+      </c>
+      <c r="O226">
+        <v>16</v>
+      </c>
+      <c r="P226">
+        <v>1925</v>
+      </c>
+      <c r="Q226">
+        <v>-8</v>
+      </c>
+      <c r="R226">
+        <v>1709</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
